--- a/Org/Sprint_Review_Protocol4.xlsx
+++ b/Org/Sprint_Review_Protocol4.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marce\OneDrive\Studium\FHTechnikumWien\3. Semester\9_InnovationLab\LocalRep\Org\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marce\OneDrive\Studium\FHTechnikum\3. Semester\9_InnoLab\LocalRep\Org\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40B23854-2D41-41D0-A900-D05D6F7267BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9960"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,6 +26,9 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
   <si>
     <t>Sprint Review Protocol</t>
   </si>
@@ -118,19 +122,28 @@
     <t>Summe</t>
   </si>
   <si>
-    <t>Funktionierendes Handtracking in VR auf allen Rechnern</t>
-  </si>
-  <si>
-    <t>Handtracking Zoom + Rotation basics Recherge</t>
-  </si>
-  <si>
-    <t>DICOM Library mit VR Handtracking Projekt verknüpfen als Basis für spätere DICOM Handtrackings</t>
+    <t>x</t>
+  </si>
+  <si>
+    <t>wurde ursprünglich nicht eingeplant</t>
+  </si>
+  <si>
+    <t>Funktionierendes Handtracking in VR auf allen Rechnern (Akzeptanzkriterium: VR Umgebung mit Handtracking funktioniert auf dem Rechner jeden Teammitglieds)</t>
+  </si>
+  <si>
+    <t>DICOM Library mit VR Handtracking Projekt verknüpfen als Basis für spätere DICOM Handtrackings (Akzeptanzkriterium: DICOM Objekt ist in VR Umgebung implementiert)</t>
+  </si>
+  <si>
+    <t>Zoom und Rotation mit DICOM Objekt implementieren (Akzeptanzkriterium: DICOM Objekt kann gezoomt und gedreht werden)</t>
+  </si>
+  <si>
+    <t>Handtracking Zoom + Rotation basics Recherche (Akzeptanzkriterium: Informationen zu Zoom und Rotation wurden gesammelt)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -350,7 +363,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -364,18 +377,32 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -383,6 +410,27 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -391,42 +439,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -741,17 +753,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8" style="2" customWidth="1"/>
-    <col min="2" max="2" width="84.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="163.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" style="2" customWidth="1"/>
     <col min="4" max="4" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
@@ -761,28 +773,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
     </row>
     <row r="3" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5"/>
@@ -796,131 +808,131 @@
       <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="26">
+      <c r="B4" s="17"/>
+      <c r="C4" s="20">
         <v>4</v>
       </c>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="27"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="21"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="28">
+      <c r="B5" s="19"/>
+      <c r="C5" s="22">
         <v>41990</v>
       </c>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="30"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="24"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="29">
+      <c r="B6" s="19"/>
+      <c r="C6" s="23">
         <v>16</v>
       </c>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="30"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="24"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="22" t="s">
+      <c r="B7" s="19"/>
+      <c r="C7" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="23"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="13"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="22" t="s">
+      <c r="B8" s="19"/>
+      <c r="C8" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="23"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="13"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="22" t="s">
+      <c r="B9" s="19"/>
+      <c r="C9" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="23"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="13"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="19" t="s">
+      <c r="B10" s="19"/>
+      <c r="C10" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="20"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="15"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="20"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="15"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="12" t="s">
+      <c r="B12" s="28"/>
+      <c r="C12" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="13"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="26"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -953,18 +965,22 @@
         <v>1</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C16" s="7">
         <v>15</v>
       </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="9">
+      <c r="D16" s="7">
+        <v>9</v>
+      </c>
+      <c r="E16" s="2">
         <f>D16-C16</f>
-        <v>-15</v>
-      </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="11"/>
+        <v>-6</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" s="10"/>
       <c r="H16" s="7"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -972,17 +988,21 @@
         <v>2</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C17" s="7">
         <v>20</v>
       </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="9">
+      <c r="D17" s="7">
+        <v>18</v>
+      </c>
+      <c r="E17" s="2">
         <f t="shared" ref="E17:E25" si="0">D17-C17</f>
-        <v>-20</v>
-      </c>
-      <c r="F17" s="10"/>
+        <v>-2</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>28</v>
+      </c>
       <c r="G17" s="4"/>
       <c r="H17" s="7"/>
     </row>
@@ -991,17 +1011,21 @@
         <v>3</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C18" s="7">
         <v>20</v>
       </c>
-      <c r="D18" s="7"/>
-      <c r="E18" s="9">
+      <c r="D18" s="7">
+        <v>12</v>
+      </c>
+      <c r="E18" s="2">
         <f t="shared" si="0"/>
-        <v>-20</v>
-      </c>
-      <c r="F18" s="3"/>
+        <v>-8</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>28</v>
+      </c>
       <c r="G18" s="4"/>
       <c r="H18" s="7"/>
     </row>
@@ -1009,16 +1033,26 @@
       <c r="A19" s="8">
         <v>4</v>
       </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="9">
+      <c r="B19" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="7">
+        <v>0</v>
+      </c>
+      <c r="D19" s="7">
+        <v>14</v>
+      </c>
+      <c r="E19" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F19" s="3"/>
+        <v>14</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>28</v>
+      </c>
       <c r="G19" s="4"/>
-      <c r="H19" s="7"/>
+      <c r="H19" s="7" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
@@ -1027,7 +1061,7 @@
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
-      <c r="E20" s="9">
+      <c r="E20" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1042,7 +1076,7 @@
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
-      <c r="E21" s="9">
+      <c r="E21" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1057,7 +1091,7 @@
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
-      <c r="E22" s="9">
+      <c r="E22" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1072,7 +1106,7 @@
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
-      <c r="E23" s="9">
+      <c r="E23" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1087,7 +1121,7 @@
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
-      <c r="E24" s="9">
+      <c r="E24" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1102,7 +1136,7 @@
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
-      <c r="E25" s="9">
+      <c r="E25" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1124,11 +1158,11 @@
       </c>
       <c r="D26" s="6">
         <f>SUM(D16:D21)</f>
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="E26" s="6">
         <f>SUM(E16:E25)</f>
-        <v>-55</v>
+        <v>-2</v>
       </c>
       <c r="F26" s="6">
         <f>COUNT(F16:F25)</f>
@@ -1153,6 +1187,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="C11:G11"/>
     <mergeCell ref="A1:I2"/>
     <mergeCell ref="C9:G9"/>
     <mergeCell ref="C10:G10"/>
@@ -1167,12 +1207,6 @@
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="C7:G7"/>
     <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="C11:G11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
